--- a/Regression testing.xlsx
+++ b/Regression testing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\roma\Tasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DE052F-672C-4A49-A342-2EF9B2F9A79E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7782837-A212-483C-A394-BAA575649ED9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{378E5474-E080-4152-872C-645300E567E3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -99,9 +99,6 @@
     <t>The lack of time to exploration a new design</t>
   </si>
   <si>
-    <t>New design</t>
-  </si>
-  <si>
     <t>New design can be more demanding to the system</t>
   </si>
   <si>
@@ -129,12 +126,6 @@
     <t>Learn a new design</t>
   </si>
   <si>
-    <t>an increase the requirements of the customer during the project</t>
-  </si>
-  <si>
-    <t>low productivity</t>
-  </si>
-  <si>
     <t>Regular discussion with the client of a change in terms and functionality at all stages of cooperation.</t>
   </si>
   <si>
@@ -144,20 +135,47 @@
     <t>It is necessary to put some time reserve in case of planning errors</t>
   </si>
   <si>
-    <t>A flexible methodology for developing a fairly productive means of reducing risks</t>
-  </si>
-  <si>
-    <t>postpone release</t>
-  </si>
-  <si>
-    <t>adjust to the requirements</t>
+    <t>An increase the requirements of the customer during the project</t>
+  </si>
+  <si>
+    <t>The lack of experience with the technologies used in the new build</t>
+  </si>
+  <si>
+    <t>Analyze and planning</t>
+  </si>
+  <si>
+    <t>Bad comunication between developers and qa team</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Bad comunication between customer and qa team</t>
+  </si>
+  <si>
+    <t>Employee vacation</t>
+  </si>
+  <si>
+    <t>Plan extra time for unexpected circumstances</t>
+  </si>
+  <si>
+    <t>Overtime</t>
+  </si>
+  <si>
+    <t>Specialist attraction or learning</t>
+  </si>
+  <si>
+    <t>Postpone release</t>
+  </si>
+  <si>
+    <t>Adjust to the requirements</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,8 +197,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,8 +225,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -237,26 +270,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -269,21 +291,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="20% — акцент1" xfId="2" builtinId="30"/>
+    <cellStyle name="Ввод " xfId="1" builtinId="20"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -299,9 +314,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -339,7 +354,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -445,7 +460,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -608,146 +623,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>1.2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>1.3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>1.4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>1.5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>2.1</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>2.4</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>2.5</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <v>3</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>3.1</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>3.2</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>3.3</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>3.4</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -761,167 +776,196 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="91.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
         <v>0.3</v>
       </c>
-      <c r="D3" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="4">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="D9" s="2">
         <v>0.6</v>
       </c>
-      <c r="D4" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="4">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
